--- a/ai-maturity-assessment/AIMA_0.20250702.xlsx
+++ b/ai-maturity-assessment/AIMA_0.20250702.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27168" windowHeight="15600"/>
+    <workbookView windowWidth="27168" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="338">
   <si>
     <t>AIMA (AI Maturity Assessment) v0.20250702</t>
   </si>
@@ -170,19 +170,21 @@
     <t>1. OWASP AI 成熟度評価 (AIMA) の概要</t>
   </si>
   <si>
-    <t>OWASP AI 成熟度評価（AIMA）は、AI 導入のための測定可能な道筋を提供します。また、組織の目標達成を支援する AI 慣行では、セキュアさ、透明性の高さ、コンプライアンス準拠性を重視しています。このフレームワークは、様々な業界や AI 成熟度レベルに適応可能であり、AI ガバナンスへの柔軟なアプローチを可能にします。
-AIMA は、組織の目標に沿った、安全で透明性が高く、コンプライアンスに準拠した AI 慣行を重視し、AI 導入のための測定可能な道筋を提供することで、組織を支援します。AIMA は、様々な業界や AI 成熟度に適応できるように意図的に構築されており、AI ガバナンスとリスク管理への柔軟なアプローチを提供します。</t>
+    <t>OWASP AI 成熟度評価（AIMA）は、AI システムのセキュリティ、信頼性、コンプライアンスを評価・改善するための構造化されたアプローチを組織に提供します。OWASP SAMM の原則を基盤としつつ、AI 特有の課題に合わせて調整された AIMA は、業界や組織の状況を問わず、責任ある AI の導入を導く測定可能な道筋を定義します。
+AI システムは、倫理的、運用上、そして技術的な面で根本的に新たなリスクをもたらし、従来のソフトウェアに用いられるものを超えたガバナンス機構を必要とします。AIMA は、AI の開発と展開の各フェーズにセキュリティ、透明性、プライバシー、そしてライフサイクル管理を統合するリスク ベースのモデルによって、このニーズに応えます。</t>
   </si>
   <si>
     <t>1.1. AI ガバナンスの必要性</t>
   </si>
   <si>
-    <t xml:space="preserve">AI ガバナンスとは、人工知能（AI）システムが責任を持って、倫理的に、そしてセキュアに開発、導入、管理されることを保証するために確立されたシステムで、ルール、プラクティス、プロセス、そして監督メカニズムから構成されています。AIガバナンスは、AI技術に伴うリスクと課題に対処しつつ、透明性、公平性、説明責任、そして社会的な利益を促進するために設計されたポリシーとフレームワークを網羅しています。
-AIMA は、人工知能システムの開発、導入、監視を管理するための構造化されたフレームワークを策定します。
-これには、AI テクノロジーが責任を持って、安全かつ倫理的に設計、実装、運用されることを保証する原則、ポリシー、および慣行が含まれます。
-AIMA は、倫理、セキュリティ、透明性、プライバシー、持続可能性などの主要分野に取り組むことで、組織に技術の進歩と社会的価値観および規制要件のバランスをとるためのロードマップを提供します。
-AIMA フレームワークの主な目標は次のとおりです。
-</t>
+    <t>AI 技術が企業、政府、そして社会に浸透するにつれ、原則に基づき実践的な監視が求められています。決定論的なソフトウェアとは異なり、AI システムはデータから学習し、時間の経過とともに適応し、説明や予測が困難な動作をすることも少なくありません。そのため、開発者、運用者、そして経営幹部には新たな責任が生じます。
+AI におけるガバナンスとは、単なるポリシーの策定にとどまらず、継続的な監視、倫理的な説明責任、リスク軽減、そしてユーザーのエンパワーメントなど、多岐にわたります。AIMA は、AI 開発を社会的価値、組織戦略、そして規制上の期待と整合させるためのフレームワークを提供することで、これらの責任を支援するように設計されています。</t>
+  </si>
+  <si>
+    <t>1.2. 既存の成熟モデルが不十分な理由</t>
+  </si>
+  <si>
+    <t>CMMI や OWASP SAMM といった従来の成熟度モデルは、従来のソフトウェア開発におけるセキュリティ確保のための実証済みの手法を提供していますが、AI 特有の特性を考慮して構築されたものではありません。AI 特有の課題には、以下のようなものがあります。</t>
   </si>
   <si>
     <r>
@@ -202,7 +204,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>倫理</t>
+      <t>非決定論的な動作</t>
     </r>
     <r>
       <rPr>
@@ -211,9 +213,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-　・AI システムが世界的に認められた倫理原則に沿って設計、開発、導入されるようにします。
-　・組織の価値観や社会規範を反映した意思決定フレームワークを含む倫理ガイドラインを AI ライフサイクルに組み込みます。</t>
+      <t>: モデルの出力はデータとコンテキストによって変化します。</t>
     </r>
   </si>
   <si>
@@ -234,7 +234,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>セキュリティ</t>
+      <t>不透明な意思決定ロジック</t>
     </r>
     <r>
       <rPr>
@@ -243,9 +243,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>：
-　・システムが敵対的攻撃、データ汚染、不正アクセスなどの脆弱性を管理していることを確実にします。
-　・AI 固有のリスクに合わせて調整されたインシデント対応メカニズムと脅威検出の適切なレベルを監視します。</t>
+      <t>: AI モデルには解釈可能性が欠けていることがよくあります。</t>
     </r>
   </si>
   <si>
@@ -266,7 +264,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>公平性とバイアスの軽減</t>
+      <t>データ中心の脆弱性</t>
     </r>
     <r>
       <rPr>
@@ -275,9 +273,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-　・学習データ、アルゴリズム、結果における潜在的なバイアスに対処し、多様なユーザー グループ間で公平なパフォーマンスを確保します。
-　・意図しない差別や危害がないか AI システムを定期的に監査します。</t>
+      <t>: 敵対的攻撃とデータ汚染により学習パイプラインが悪用されます。</t>
     </r>
   </si>
   <si>
@@ -298,7 +294,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>透明性と説明可能性</t>
+      <t>動的なリスク対象領域</t>
     </r>
     <r>
       <rPr>
@@ -307,19 +303,44 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-　・AI モデルが入力を処理して出力を生成する方法をステークホルダーが理解できるシステムを設計します。
-　・技術者と非技術者の両方にとってわかりやすく明確な方法で AI の意思決定プロセスを伝達します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>: AI システムは時間の経過とともに進化するため、継続的な保証が必要です。</t>
+    </r>
+  </si>
+  <si>
+    <t>既存のフレームワークでは、これらの問題を包括的に扱うことはほとんどなく、AI に適用しようとする組織は、ポリシー レベルの原則しか提示されず、実用的なガイダンスが不足しているケースがほとんどです。</t>
+  </si>
+  <si>
+    <t>1.3. OWASP エコシステムと AI 固有のリソース</t>
+  </si>
+  <si>
+    <t>AIMA は、OWASP の AI セキュリティとプライバシーに関する幅広い取り組みを基盤としています。いくつかの姉妹プロジェクトが補完的なガイダンスを提供しています。</t>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
+      <t>OWASP Top 10 for Large Language Model Applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: LLM ベースのシステムにおける最も重要なセキュリティ脆弱性の厳選されたリスト。</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>●</t>
     </r>
     <r>
@@ -330,7 +351,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>プライバシーとデータ保護</t>
+      <t>OWASP AI Security and Privacy Guide</t>
     </r>
     <r>
       <rPr>
@@ -339,19 +360,35 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-　・データ保護法 (GDPR、CCPA など) への準拠を確保し、機密性の高いユーザー データに対する強力な保護手段を維持します。
-　・個人情報の収集と保管を必要最小限に抑え、設計によりプライバシーを強化します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>: 安全でプライバシーを保護する AI システムの構築、テスト、調達に関する実践的なアドバイス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
+      <t>OWASP AI Exchange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: AI セキュリティとガバナンスのベスト プラクティスを包括的にまとめたコミュニティ主導のリポジトリ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>●</t>
     </r>
     <r>
@@ -362,7 +399,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>回復力と堅牢性</t>
+      <t>OWASP Machine Learning Security Top 10</t>
     </r>
     <r>
       <rPr>
@@ -371,19 +408,44 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-　・敵対的な環境や予期しない入力など、さまざまな条件下で機能を維持できる AI システムを開発します。
-　・エラーや悪意のある攻撃を検出し、回復し、軽減するためのメカニズムを含めます。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>: 敵対的攻撃やインフラストラクチャ レベルの攻撃を含む、ML システムの脅威の分類。</t>
+    </r>
+  </si>
+  <si>
+    <t>これらのリソースを組み合わせることで、AIMA の脅威モデル、範囲、コミュニティ アプローチのバックボーンが形成されます。</t>
+  </si>
+  <si>
+    <t>1.4. AIMA の提示物</t>
+  </si>
+  <si>
+    <t>AIMA は、原則と慣行の間のギャップを埋めます。公平性、堅牢性、透明性といった抽象的な目標を、測定可能な活動と成果へと変換します。AIMA は以下のことをサポートします。</t>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
+      <t>コンテキスト評価</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: AI の採用と成熟度のさまざまなレベルに合わせて調整されます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>●</t>
     </r>
     <r>
@@ -394,7 +456,7 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>持続可能性</t>
+      <t>段階的な改善</t>
     </r>
     <r>
       <rPr>
@@ -403,1041 +465,71 @@
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-　・学習と推論におけるエネルギー使用の最適化など、AI の開発と導入における環境に配慮した慣行を推進します。
-　・AI モデルとシステムがリソースと環境に与える長期的な影響を評価します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>: 成熟度レベルは、即時の完全な準拠を必要とせずに進むべき道筋を定義します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>部門横断的な調整</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>監視とライフサイクル管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-　・AI システムのパフォーマンス、信頼性、および事前定義された基準へのコンプライアンスを継続的に監視します。
-　・必要に応じて AI システムを更新、再学習、または廃止するための明確なプロトコルを確立します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>連携と学際的なインプット</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-　・AI 開発者、法律顧問、倫理学者、ドメイン専門家間の連携を促進します。
-　・多様な視点を活用して、AI のガバナンス、倫理、テクノロジーにおける複雑な課題に対処します。</t>
-    </r>
-  </si>
-  <si>
-    <t>1.2. 別の成熟度モデルが必要な理由</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人工知能（AI）が社会やビジネスの様々な側面にますます統合されるにつれ、組織は既存の成熟度モデルでは十分に対応できない特有の課題に直面しています。CMMI (Capability Maturity Model Integration）や OWASP Software Assurance Maturity Model (SAMM) などのフレームワークは、従来のソフトウェア開発プロセスを評価する上で有用な構造を提供しますが、AI システム特有の複雑性を考慮するために必要な特異性が欠けています。このギャップにより、AI 特有の要求に合わせてカスタマイズされた、専用の成熟度モデルの作成が求められています。
-OWASP では、人工知能（AI）と機械学習（ML）のセキュリティとプライバシーの側面に焦点を当てた複数のプロジェクトに取り組んでいます。中でも注目すべきものは以下のとおりです。
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1. OWASP Top 10 for Large Language Models</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-このプロジェクトは、大規模言語モデル（LLM）および生成 AI アプリケーションの導入と管理における潜在的なセキュリティ リスクについてステークホルダーに啓発活動を行うものです。プロンプト インジェクション、データ漏洩、不正コード実行など、LLM アプリケーションでよく見られる最も重大な脆弱性トップ 10 のリストを含むリソースを提供します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2. OWASP AI Security and Privacy Guide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-このガイドは、セキュアでプライバシーを保護する AI システムの設計、構築、テスト、調達に関する明確で実用的な洞察を提供します。セキュリティとプライバシーの両面を取り上げ、AI 特有の課題への対処方法に関するガイダンスを提供します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3. OWASP AI Exchange</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-AI およびデータ中心システムをセキュリティ脅威から保護する方法に関する 170 ページを超える包括的なガイダンスです。国際標準にも直接反映されています。コミュニティによって作成され、オープンソースとしてコミュニティに提供されています。OWASP AI Security and Privacy Guide の一部です。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4. OWASP Machine Learning Security Top Ten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-このプロジェクトでは、機械学習システムにおけるセキュリティ上の問題トップ 10 の概要を提供します。敵対的な攻撃だけでなく、機械学習の運用およびエンジニアリング ワークフローのセキュリティ衛生など、敵対的なシナリオも網羅しています。
-</t>
-    </r>
-  </si>
-  <si>
-    <t>これらのプロジェクトは、開発者、設計者、アーキテクト、管理者、そして組織向けに包括的なガイドライン、リソース、ツールを提供することで、AI および ML システムのセキュリティとプライバシーを強化することを目指しています。AIMA プロジェクトは、OWASP SAMM および OWASP AI Initiatives から生まれました。</t>
-  </si>
-  <si>
-    <t>1.2.1. AI 特有の課題への取り組み</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI システムは、データ駆動型モデル、適応型動作、そして往々にして不透明な意思決定プロセスに依存する点で、従来のソフトウェアとは根本的に異なります。これらの特性により、以下のような課題が生じます。
-</t>
-  </si>
-  <si>
-    <t>●スキルギャップ: 組織やユーザーは、AI システムを効果的に管理したり、その機能、限界、潜在的なリスクを理解したりするために必要な専門知識を欠いていることがよくあります。これは、AI 技術の管理ミスや不適切な使用につながり、既存の課題をさらに悪化させる可能性があります。</t>
-  </si>
-  <si>
-    <t>●倫理的なジレンマ: AI システムは、偏見、差別、有害な結果を避け、社会的および組織の価値観と一致する必要があります。</t>
-  </si>
-  <si>
-    <t>●セキュリティ リスク: AI は敵対的攻撃やデータ汚染などの脅威に対して脆弱であり、標的を絞ったセキュリティ対策が必要です。</t>
-  </si>
-  <si>
-    <t>●透明性と説明責任: AI モデルは往々にして「ブラックボックス」の性質を持つため、説明可能性と追跡可能性を確保するための取り組みが複雑になります。</t>
-  </si>
-  <si>
-    <t>1.2.2. AI ソフトウェア：ユーザーの意識向上と組織の責任の必要性</t>
-  </si>
-  <si>
-    <t>従来のソフトウェア開発は、事前定義されたルールと決定論的な動作に依存しているため、機能が予測可能で、テスト、検証、ガバナンスが容易です。一方、AI システムは、大規模なデータセットから学習し、確率的な意思決定を行うデータ駆動型モデルに基づいて動作し、多くの場合、適応的な動作を示します。この根本的な違いは、AI システムが新しいシナリオで予測不可能な動作をする可能性があり、学習に使用したデータに基づいてバイアスがかかりやすく、意思決定プロセスの透明性が欠如していることを意味します。AI システムとやり取りするユーザーは、その限界、リスク、エラーの可能性を完全に理解していない可能性があり、誤用や誤った信頼につながる可能性があります。
-企業にとって、こうした違いは大きな課題となります。厳格な仕様に固執する従来のソフトウェアとは異なり、AI システムはビジネス目標や倫理基準への適合性を維持するために、継続的な監視と適応が必要です。組織は、不公平な結果、セキュリティ上の脆弱性、規制違反といった運用リスクを十分に理解せずに AI を導入してしまう可能性があります。例えば、金融会社が融資承認に AI システムを導入する際に、学習データを適切に検証しないままにしてしまうと、偏った判断につながり、顧客に損害を与え、企業の評判を落とす可能性があります。これは、AI が責任を持って開発・導入されるためには、関係者間の意識、説明責任、ガバナンスが極めて重要であることを示唆しています。
-既存の成熟モデルではこれらの要因が包括的に扱われていないため、組織は AI システムの開発、導入、監視を責任を持って管理するための適切なガイダンスがない状態になります。</t>
-  </si>
-  <si>
-    <t>1.2.3. 原則と慣行の橋渡し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">近年、構造化された AI 評価の必要性を強調する MITRE AI フレームワークなど、いくつかの AI 成熟度モデルが登場しました。しかし、これらの高レベルの原則は、組織にとって実践的なステップを提供していないことがよくあります。
-AI 成熟度評価 (AIMA) は、次の方法でこのギャップを埋めることを目指しています。
-</t>
-  </si>
-  <si>
-    <t>●抽象的な倫理原則を実際的かつ測定可能な行動に変換します。</t>
-  </si>
-  <si>
-    <t>●AI プロジェクトにおけるガバナンス、セキュリティ、公平性、持続可能性を実装するための構造化されたアプローチを提供します。</t>
-  </si>
-  <si>
-    <t>●組織のプロセスを新たなグローバル標準および規制に適合させます。</t>
-  </si>
-  <si>
-    <t>1.2.4. 成熟度のあらゆる段階にある組織をサポート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMA は OWASP SAMM と同様に適応性に優れた設計となっており、AI 機能の検討を開始した組織から、複雑で大規模な AI システムを運用している組織まで、AI 導入の様々な段階にある組織をサポートします。このモデルは以下の特徴を備えています。
-</t>
-  </si>
-  <si>
-    <t>●現在の AI 慣行を評価するための明確なベンチマーク。</t>
-  </si>
-  <si>
-    <t>●組織のニーズに合わせた改善ロードマップ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">●技術的、倫理的、規制的観点からの学際的な意見を統合する連携フレームワーク。
-</t>
-  </si>
-  <si>
-    <t>AIMA は、既存モデルの限界に対処し、AI がもたらす特有の課題に焦点を当てることで、組織が AI の変革の可能性を責任を持って活用するための、待望のフレームワークを提供します。これにより、コンプライアンスとリスク軽減だけでなく、公正で透明性が高く、社会的価値観に沿った AI システムの開発も保証されます。</t>
-  </si>
-  <si>
-    <t>1.3. AI 成熟度モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">近年、AI 関連のリスクと機会を管理するための構造化されたフレームワークに対する業界の認識の高まりを反映して、複数の AI 成熟度モデルが登場しています。注目すべき例としては、以下のようなものがあります。
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MITRE AI フレームワーク</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI システム全体にわたる構造化された評価と包括的なリスク管理の重要性を強調しています。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Gartner AI 成熟度モデル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI 導入に向けた組織の準備状況、戦略的調整、能力開発に関する洞察を提供します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Microsoft AI 成熟度モデル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: 戦略、ガバナンス、技術的実装などの成熟度の側面に重点を置いています。
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OWASP AI 成熟度評価 (AIMA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> は、次のような独特の特徴を備えています。
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>コミュニティのビジョン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: OWASP は、独自の視点を主張するのではなく、多様なグローバルな専門知識に基づいた、協力的でコミュニティ主導のフレームワークを促進します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>オープンな参加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: OWASP は、世界中の組織、専門家、個人からのオープンな貢献を奨励し、継続的な進化と関連性を促進します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事実上の標準</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: AIMA は、オープンで包括的なアプローチを採用し、広く認知され採用される標準となることを目指し、さまざまな分野の組織を安全で責任ある AI 実装へと導きます。
-</t>
-    </r>
-  </si>
-  <si>
-    <t>OWASP AIMAは、組織がセキュリティ体制と AI 技術の責任ある利用を評価、分析、強化するための、最高のオープンソース手法としての地位を確立することを目指しています。OWASP SAMM の実証済みモデルに準拠する AIMA は、テクノロジーやプロセスに依存せず、AI システムのライフサイクル全体にわたって責任ある管理を行うためのリスク ベースのアプローチを提供します。</t>
-  </si>
-  <si>
-    <t>1.4. AIMA モデル</t>
-  </si>
-  <si>
-    <t>AI 成熟度評価（AIMA）モデルは、AI システムのライフサイクル全体にわたって評価、管理、継続的な改善を行うための構造化されたフレームワークを提供します。OWASP ソフトウェア保証成熟度モデル（SAMM）を基盤とする AIMA フレームワークは、AI 技術特有のセキュリティ、倫理、プライバシー、ガバナンスの課題に対処します。ガバナンス、責任ある AI 原則、データ管理、プライバシー、設計、実装、検証、運用を網羅した統合的なアプローチを重視しています。
-AIMA は、AI に関する高水準の原則を実用的なガイダンスへと翻訳し、組織が規制要件を遵守し、AI 開発を社会の期待に沿ったものにするための支援を提供します。明確な成熟度ベンチマークと構造化されたガイダンスを備えたこのモデルは、あらゆる規模と成熟度の組織に適用できるように設計されており、責任あるイノベーションと AI システムのセキュアな導入を促進します。</t>
-  </si>
-  <si>
-    <t>責任ある AI 原則</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>倫理的価値と社会的影響</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI の導入と使用による幅広い倫理的価値と社会的影響を評価し、対処します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>透明性と説明可能性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI システムの透明性と解釈可能性を強化して、信頼を構築し、説明責任を促進します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公平性とバイアス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI システム内のバイアスを特定、軽減、監視して、公平な結果を確保します。</t>
-    </r>
-  </si>
-  <si>
-    <t>ガバナンス</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>戦略と指標</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 組織の目標、リスク許容度、倫理フレームワークに沿った AI 固有の戦略目標と測定可能な成果を定義および追跡します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ポリシーとコンプライアンス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 倫理的、法的、安全な AI の使用を確保するために、AI に重点を置いたポリシー、標準、規制コンプライアンス フレームワークを確立して適用します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>教育とガイダンス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI システムに携わるステークホルダー向けにカスタマイズされたトレーニング、ガイダンス、リソースを提供し、責任ある安全な慣行を促進します。</t>
-    </r>
-  </si>
-  <si>
-    <t>データ管理</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●データの品質と整合性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 正確で堅牢な AI モデルをサポートするために、高品質で信頼性が高くセキュアなデータを確保します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●データ ガバナンスと説明責任性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: データ管理、セキュリティ、倫理的使用に関する明確な責任とプロセスを実装します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●データの学習</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI 学習データセットを管理および監視して、正確性、セキュリティ、確立済み標準への準拠を確保します。</t>
-    </r>
-  </si>
-  <si>
-    <t>プライバシー</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●データの最小化と目的の制限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: プライバシーのベスト プラクティスと規制ガイドラインに従い、明確に定義された目的に厳密に従ってデータを収集および処理します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●設計とデフォルトによるプライバシー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI システムの設計と運用にプライバシー対策を積極的に統合します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●ユーザー制御と透明性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 明確なコミュニケーション、透明性、およびデータに対する意味のある制御を通じて、ユーザーに権限を与えます。</t>
-    </r>
-  </si>
-  <si>
-    <t>設計</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●脅威の評価</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 敵対的な機械学習攻撃やデータ操作など、AI 固有のセキュリティ脅威を特定します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●セキュリティ アーキテクチャ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 階層化された防御と安全な設計原則を通じて、セキュリティ リスクに積極的に対処する堅牢な AI システムを設計します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●セキュリティ要件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI システムの機能とリスクに合わせてカスタマイズされたセキュリティの期待と基準を明確に定義します。</t>
-    </r>
-  </si>
-  <si>
-    <t>実装</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●セキュアなビルド</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: データの準備、モデルの学習、デプロイメントをカバーするセキュアな開発慣行を AI ワークフロー内に組み込みます。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●セキュアなデプロイメント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI システムがセキュアに導入および保守され、運用環境内のモデルとデータが保護されるようにします。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●不具合管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI モデルとインフラストラクチャの脆弱性と不具合を特定、追跡、修復するための体系的なプロセスを確立します。</t>
-    </r>
-  </si>
-  <si>
-    <t>検証</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●セキュリティ テスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 既知および新たな脅威に対する AI システムのセキュリティと堅牢性を検証するための専門的なテストを実行します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●要件ベースのテスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 構造化された繰り返し可能なテスト手法を通じて、AI システムが定義されたセキュリティ、機能、コンプライアンスの要件を満たしていることを確実にします。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●アーキテクチャの評価</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI アーキテクチャを定期的に評価し、セキュリティ標準、ベスト プラクティス、倫理ガイドラインに準拠しているかどうかを検証します。</t>
-    </r>
-  </si>
-  <si>
-    <t>運用</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●インシデント管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: モデルの侵害やデータ侵害など、AI システムに関連するセキュリティ インシデントに効率的かつ効果的に対応します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●イベント管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: AI システムのイベントとパフォーマンスを継続的に監視し、異常や意図した動作からの逸脱を検出します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●運用管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 継続的な AI システム運用を管理し、AI ライフサイクル全体にわたって安全で信頼性が高く、コンプライアンスに準拠したパフォーマンスを確保します。</t>
-    </r>
+      <t>: 技術チーム、法律顧問、リスク管理者、経営幹部向けに設計されます。</t>
+    </r>
+  </si>
+  <si>
+    <t>AIMA は、一部のプロプライエタリまたはクローズドな成熟度フレームワークとは異なり、オープンソースでコミュニティ主導です。実世界での使用、フィードバック、そして反復を通じて、適応と進化を促進します。</t>
+  </si>
+  <si>
+    <t>1.5. AIMA の概要</t>
+  </si>
+  <si>
+    <t>AIMA は、AI システムのライフサイクル全体にわたる 8 つの評価ドメインを定義しています。</t>
+  </si>
+  <si>
+    <t>責任ある AI の原則: 公平性、透明性、社会への影響。</t>
+  </si>
+  <si>
+    <t>ガバナンス: 戦略、ポリシー、教育。</t>
+  </si>
+  <si>
+    <t>データ管理: 品質、説明責任、およびトレーニング データの実践。</t>
+  </si>
+  <si>
+    <t>プライバシー: データの最小化、設計によるプライバシー、ユーザー制御。</t>
+  </si>
+  <si>
+    <t>設計: 脅威モデル、セキュリティ アーキテクチャ、および要件。</t>
+  </si>
+  <si>
+    <t>実装: 安全なビルド、デプロイメント、および欠陥管理。</t>
+  </si>
+  <si>
+    <t>検証: テストとアーキテクチャの検証。</t>
+  </si>
+  <si>
+    <t>運用: 監視、インシデント対応、システム ライフサイクル管理。</t>
+  </si>
+  <si>
+    <t>各ドメインには、2 つの補完的なストリーム（例: 作成と促進（ストリーム A）と測定と改善（ストリーム B））にグループ化された成熟度基準が含まれています。組織は、自らの取り組みを評価し、ギャップを特定し、体系的に改善の優先順位付けを行うことができます。</t>
+  </si>
+  <si>
+    <t>本書では、さまざまなセクターで AIMA を実際に導入できるようにするための詳細な説明、ワークシート、ガイダンスを提供します。</t>
   </si>
   <si>
     <t>2. OWASP AI 成熟度評価 (AIMA) の詳細</t>
@@ -2796,6 +1888,9 @@
     </r>
   </si>
   <si>
+    <t>ガバナンス</t>
+  </si>
+  <si>
     <t>戦略と指標</t>
   </si>
   <si>
@@ -4117,6 +3212,9 @@
     </r>
   </si>
   <si>
+    <t>データ管理</t>
+  </si>
+  <si>
     <t>データの品質と整合性</t>
   </si>
   <si>
@@ -5419,6 +4517,9 @@
       </rPr>
       <t>: ドリフトおよび毒性の定期的な監視を備えたセキュアなデータ処理手続きにより、規制への対応と倫理基準を維持しています。</t>
     </r>
+  </si>
+  <si>
+    <t>プライバシー</t>
   </si>
   <si>
     <t>データの最小化と利用目的の制限</t>
@@ -6086,6 +5187,9 @@
 ■プライバシー ダッシュボードと詳細な制御は、すべてのユーザー向けシステムに標準となっています。</t>
   </si>
   <si>
+    <t>設計</t>
+  </si>
+  <si>
     <t>脅威の評価</t>
   </si>
   <si>
@@ -7170,6 +6274,9 @@
       </rPr>
       <t>: 詳細な監査証跡を自動的に生成し、ガバナンス、コンプライアンス、インシデント対応のための即時かつ透明性の高いレポート作成を可能にしてます。</t>
     </r>
+  </si>
+  <si>
+    <t>実装</t>
   </si>
   <si>
     <t>セキュアなビルド</t>
@@ -8262,6 +7369,9 @@
     </r>
   </si>
   <si>
+    <t>検証</t>
+  </si>
+  <si>
     <t>セキュリティ テスト</t>
   </si>
   <si>
@@ -8568,6 +7678,9 @@
 ■組織は、実用的な指標に基づく継続的なアーキテクチャ改良に対して、強いコミットメントをしています。</t>
   </si>
   <si>
+    <t>運用</t>
+  </si>
+  <si>
     <t>インシデント管理</t>
   </si>
   <si>
@@ -9053,6 +8166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■</t>
     </r>
     <r>
@@ -9157,6 +8276,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■</t>
     </r>
     <r>
@@ -9242,6 +8367,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■</t>
     </r>
     <r>
@@ -9309,6 +8440,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■</t>
     </r>
     <r>
@@ -9373,6 +8510,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■</t>
     </r>
     <r>
@@ -9437,6 +8580,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■</t>
     </r>
     <r>
@@ -9507,6 +8656,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>初期の監視、基本的な制御、新たな認識を備えた</t>
     </r>
     <r>
@@ -9526,6 +8681,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>構造化されたプロセスを開発</t>
     </r>
     <r>
@@ -9544,6 +8706,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>成熟した高度なシステム</t>
     </r>
     <r>
@@ -9565,6 +8734,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■</t>
     </r>
     <r>
@@ -9634,6 +8809,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■</t>
     </r>
     <r>
@@ -9735,7 +8916,7 @@
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9777,6 +8958,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
@@ -9790,37 +8978,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
       <name val="Meiryo UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9836,6 +9002,42 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9863,13 +9065,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -9878,24 +9073,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -9918,6 +9105,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -9933,19 +9128,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Meiryo UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="40">
@@ -9999,7 +9186,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10011,7 +9210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10023,7 +9222,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10035,7 +9264,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10047,91 +9300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10149,19 +9318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10173,13 +9336,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10245,15 +9432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -10265,6 +9443,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10287,23 +9489,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10312,6 +9499,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -10331,17 +9529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10350,7 +9537,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10359,7 +9546,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10368,131 +9555,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10595,23 +9782,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -11549,13 +10748,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7833360</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>4504055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11573,7 +10772,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="320040" y="30891480"/>
+          <a:off x="320040" y="12070080"/>
           <a:ext cx="7924800" cy="4496435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11916,22 +11115,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I119"/>
+  <dimension ref="B1:F60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="2.55555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.44444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="116.333333333333" style="34" customWidth="1"/>
+    <col min="3" max="3" width="116.333333333333" style="36" customWidth="1"/>
     <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" spans="2:6">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18"/>
@@ -11944,418 +11143,212 @@
       </c>
     </row>
     <row r="5" ht="100.8" spans="3:3">
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="16.2" spans="2:2">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="187.2" spans="3:3">
-      <c r="C9" s="34" t="s">
+    <row r="8" ht="16.2" spans="2:2">
+      <c r="B8" s="38"/>
+    </row>
+    <row r="9" ht="100.8" spans="3:3">
+      <c r="C9" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="3:3">
-      <c r="C10" s="34" t="s">
+    <row r="10" s="1" customFormat="1" spans="3:3">
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" ht="16.2" spans="2:2">
+      <c r="B11" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="3:3">
-      <c r="C11" s="34" t="s">
+    <row r="13" ht="28.8" spans="3:3">
+      <c r="C13" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="3:3">
-      <c r="C12" s="34" t="s">
+    <row r="15" spans="3:3">
+      <c r="C15" s="36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="43.2" spans="3:3">
-      <c r="C13" s="34" t="s">
+    <row r="16" spans="3:3">
+      <c r="C16" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="43.2" spans="3:3">
-      <c r="C14" s="34" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="43.2" spans="3:3">
-      <c r="C15" s="34" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="43.2" spans="3:3">
-      <c r="C16" s="34" t="s">
+    <row r="20" ht="28.8" spans="3:3">
+      <c r="C20" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="43.2" spans="3:3">
-      <c r="C17" s="34" t="s">
+    <row r="22" ht="16.2" spans="2:2">
+      <c r="B22" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="43.2" spans="3:3">
-      <c r="C18" s="34" t="s">
+    <row r="24" ht="28.8" spans="3:3">
+      <c r="C24" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:3">
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" ht="16.2" spans="2:2">
-      <c r="B20" s="37" t="s">
+    <row r="26" ht="28.8" spans="3:3">
+      <c r="C26" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="115.2" spans="3:3">
-      <c r="C22" s="34" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" ht="57.6" spans="3:3">
-      <c r="C23" s="38" t="s">
+    <row r="28" spans="3:3">
+      <c r="C28" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="43.2" spans="3:3">
-      <c r="C24" s="38" t="s">
+    <row r="29" spans="3:3">
+      <c r="C29" s="36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" ht="43.2" spans="3:3">
-      <c r="C25" s="38" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="57.6" spans="3:3">
-      <c r="C26" s="38" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+    </row>
+    <row r="33" s="34" customFormat="1" ht="16.2" spans="2:3">
+      <c r="B33" s="41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" ht="43.2" spans="3:3">
-      <c r="C27" s="34" t="s">
+      <c r="C33" s="42"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+    </row>
+    <row r="35" ht="28.8" spans="2:3">
+      <c r="B35" s="39"/>
+      <c r="C35" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="39" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="39"/>
+      <c r="C37" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" ht="43.2" spans="3:3">
-      <c r="C31" s="34" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" s="39"/>
+      <c r="C38" s="40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" ht="28.8" spans="3:3">
-      <c r="C32" s="34" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" s="39"/>
+      <c r="C39" s="40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="34" t="s">
+    <row r="40" spans="2:3">
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+    </row>
+    <row r="41" ht="28.8" spans="2:3">
+      <c r="B41" s="39"/>
+      <c r="C41" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="34" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+    </row>
+    <row r="44" ht="16.2" spans="2:2">
+      <c r="B44" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="34" t="s">
+    <row r="46" ht="363" customHeight="1"/>
+    <row r="47" spans="3:3">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="39" t="s">
+    <row r="49" s="35" customFormat="1" ht="14.4" spans="3:3">
+      <c r="C49" s="36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" ht="201.6" spans="3:3">
-      <c r="C39" s="34" t="s">
+    <row r="50" s="35" customFormat="1" ht="14.4" spans="3:3">
+      <c r="C50" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="39" t="s">
+    <row r="51" s="35" customFormat="1" ht="14.4" spans="3:3">
+      <c r="C51" s="43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" ht="72" spans="3:3">
-      <c r="C43" s="34" t="s">
+    <row r="52" s="35" customFormat="1" ht="14.4" spans="3:3">
+      <c r="C52" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="34" t="s">
+    <row r="53" s="35" customFormat="1" ht="14.4" spans="3:3">
+      <c r="C53" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="34" t="s">
+    <row r="54" s="35" customFormat="1" ht="14.4" spans="3:3">
+      <c r="C54" s="43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="34" t="s">
+    <row r="55" s="35" customFormat="1" ht="14.4" spans="3:3">
+      <c r="C55" s="43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="39" t="s">
+    <row r="56" s="35" customFormat="1" ht="14.4" spans="3:3">
+      <c r="C56" s="43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" ht="43.2" spans="3:3">
-      <c r="C50" s="34" t="s">
+    <row r="58" ht="28.8" spans="3:3">
+      <c r="C58" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="34" t="s">
+    <row r="60" spans="3:3">
+      <c r="C60" s="36" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" ht="28.8" spans="3:3">
-      <c r="C53" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" ht="43.2" spans="3:3">
-      <c r="C54" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" ht="16.2" spans="2:2">
-      <c r="B56" s="37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" ht="43.2" spans="3:3">
-      <c r="C58" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" ht="28.8" spans="3:3">
-      <c r="C61" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" ht="28.8" spans="3:3">
-      <c r="C62" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" ht="28.8" spans="3:3">
-      <c r="C63" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" ht="43.2" spans="3:3">
-      <c r="C65" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" ht="43.2" spans="3:3">
-      <c r="C66" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" ht="16.2" spans="2:2">
-      <c r="B68" s="37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" ht="115.2" spans="3:3">
-      <c r="C70" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" ht="363" customHeight="1"/>
-    <row r="73" spans="2:2">
-      <c r="B73" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9">
-      <c r="C81" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I81"/>
-    </row>
-    <row r="82" ht="28.8" spans="3:3">
-      <c r="C82" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" ht="28.8" spans="3:3">
-      <c r="C83" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" ht="28.8" spans="3:3">
-      <c r="C93" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3">
-      <c r="C105" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3">
-      <c r="C106" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3">
-      <c r="C111" s="38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" ht="28.8" spans="3:3">
-      <c r="C112" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3">
-      <c r="C113" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3">
-      <c r="C117" s="38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="119" ht="28.8" spans="3:3">
-      <c r="C119" s="38" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -12370,8 +11363,8 @@
   <sheetPr/>
   <dimension ref="B1:F322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -12387,12 +11380,12 @@
   <sheetData>
     <row r="1" ht="18.6" spans="2:2">
       <c r="B1" s="19" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="20" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -12401,30 +11394,30 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="45" spans="2:6">
       <c r="B5" s="25" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>1</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="E5" s="28">
         <v>1</v>
@@ -12435,7 +11428,7 @@
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
       <c r="D6" s="30" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
@@ -12446,7 +11439,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
@@ -12455,7 +11448,7 @@
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
       <c r="D8" s="30" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
@@ -12466,7 +11459,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
@@ -12475,20 +11468,20 @@
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="30" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
     </row>
     <row r="11" ht="45" spans="2:6">
       <c r="B11" s="25" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C11" s="26">
         <v>1</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="E11" s="28">
         <v>1</v>
@@ -12499,7 +11492,7 @@
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="30" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
@@ -12510,7 +11503,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="29"/>
@@ -12519,7 +11512,7 @@
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="30" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
@@ -12530,7 +11523,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="29"/>
@@ -12539,37 +11532,37 @@
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="30" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="30" spans="2:6">
       <c r="B18" s="25" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="E18" s="28">
         <v>1</v>
@@ -12580,7 +11573,7 @@
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="30" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
@@ -12591,7 +11584,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
@@ -12600,7 +11593,7 @@
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="30" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="29"/>
@@ -12611,7 +11604,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="29"/>
@@ -12620,20 +11613,20 @@
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
       <c r="D23" s="30" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="29"/>
     </row>
     <row r="24" ht="30" spans="2:6">
       <c r="B24" s="25" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C24" s="26">
         <v>1</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="E24" s="28">
         <v>1</v>
@@ -12644,7 +11637,7 @@
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="30" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="29"/>
@@ -12655,7 +11648,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="29"/>
@@ -12664,7 +11657,7 @@
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="30" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="29"/>
@@ -12675,7 +11668,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
@@ -12684,37 +11677,37 @@
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="30" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="30" spans="2:6">
       <c r="B31" s="25" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C31" s="26">
         <v>1</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E31" s="28">
         <v>1</v>
@@ -12725,7 +11718,7 @@
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="31" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="29"/>
@@ -12736,7 +11729,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="29"/>
@@ -12745,7 +11738,7 @@
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="30" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="29"/>
@@ -12756,7 +11749,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="29"/>
@@ -12765,20 +11758,20 @@
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="30" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="29"/>
     </row>
     <row r="37" ht="30" spans="2:6">
       <c r="B37" s="25" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C37" s="26">
         <v>1</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
@@ -12789,7 +11782,7 @@
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="30" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
@@ -12800,7 +11793,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
@@ -12809,7 +11802,7 @@
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="30" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
@@ -12820,7 +11813,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="29"/>
@@ -12829,14 +11822,14 @@
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="30" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="32" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -12845,30 +11838,30 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="30" spans="2:6">
       <c r="B45" s="25" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C45" s="26">
         <v>1</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="E45" s="28">
         <v>1</v>
@@ -12879,7 +11872,7 @@
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="30" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="29"/>
@@ -12890,7 +11883,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="29"/>
@@ -12899,7 +11892,7 @@
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="30" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="29"/>
@@ -12910,7 +11903,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="29"/>
@@ -12919,20 +11912,20 @@
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="30" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="29"/>
     </row>
     <row r="51" ht="30" spans="2:6">
       <c r="B51" s="25" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C51" s="26">
         <v>1</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="E51" s="28">
         <v>2</v>
@@ -12943,7 +11936,7 @@
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="30" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="29"/>
@@ -12954,7 +11947,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="29"/>
@@ -12963,7 +11956,7 @@
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="30" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -12974,7 +11967,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
@@ -12983,37 +11976,37 @@
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="30" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="29"/>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="E57" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="30" spans="2:6">
       <c r="B58" s="5" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C58" s="28">
         <v>1</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E58" s="28">
         <v>1</v>
@@ -13024,7 +12017,7 @@
       <c r="B59" s="5"/>
       <c r="C59" s="28"/>
       <c r="D59" s="30" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -13035,7 +12028,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -13044,7 +12037,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="28"/>
       <c r="D61" s="30" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
@@ -13055,7 +12048,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -13064,20 +12057,20 @@
       <c r="B63" s="5"/>
       <c r="C63" s="28"/>
       <c r="D63" s="30" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="30" spans="2:6">
       <c r="B64" s="5" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C64" s="28">
         <v>1</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E64" s="28">
         <v>1</v>
@@ -13088,7 +12081,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="28"/>
       <c r="D65" s="30" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
@@ -13099,7 +12092,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
@@ -13108,7 +12101,7 @@
       <c r="B67" s="5"/>
       <c r="C67" s="28"/>
       <c r="D67" s="30" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -13119,7 +12112,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -13128,37 +12121,37 @@
       <c r="B69" s="5"/>
       <c r="C69" s="28"/>
       <c r="D69" s="30" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="30" spans="2:6">
       <c r="B71" s="25" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C71" s="26">
         <v>1</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E71" s="28">
         <v>1</v>
@@ -13169,7 +12162,7 @@
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="30" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="29"/>
@@ -13180,7 +12173,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
@@ -13189,7 +12182,7 @@
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="30" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="29"/>
@@ -13200,7 +12193,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="29"/>
@@ -13209,20 +12202,20 @@
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="30" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="29"/>
     </row>
     <row r="77" ht="30" spans="2:6">
       <c r="B77" s="25" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="C77" s="26">
         <v>1</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="E77" s="28">
         <v>2</v>
@@ -13233,7 +12226,7 @@
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="30" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="29"/>
@@ -13244,7 +12237,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="29"/>
@@ -13253,7 +12246,7 @@
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="30" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="29"/>
@@ -13264,7 +12257,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="29"/>
@@ -13273,14 +12266,14 @@
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="30" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="29"/>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="20" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -13289,30 +12282,30 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" ht="30" spans="2:6">
       <c r="B85" s="25" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C85" s="26">
         <v>1</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="E85" s="28">
         <v>1</v>
@@ -13323,7 +12316,7 @@
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="30" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="29"/>
@@ -13334,7 +12327,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="29"/>
@@ -13343,7 +12336,7 @@
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="30" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="29"/>
@@ -13354,7 +12347,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
@@ -13363,20 +12356,20 @@
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="30" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
     </row>
     <row r="91" ht="30" spans="2:6">
       <c r="B91" s="25" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C91" s="26">
         <v>1</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="E91" s="28">
         <v>0</v>
@@ -13387,7 +12380,7 @@
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="30" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="29"/>
@@ -13398,7 +12391,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="29"/>
@@ -13407,7 +12400,7 @@
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="30" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="29"/>
@@ -13418,7 +12411,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="29"/>
@@ -13427,37 +12420,37 @@
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="30" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="29"/>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="25" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C98" s="26">
         <v>1</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="E98" s="28">
         <v>0</v>
@@ -13468,7 +12461,7 @@
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="30" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="29"/>
@@ -13479,7 +12472,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="29"/>
@@ -13488,7 +12481,7 @@
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="30" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="29"/>
@@ -13499,7 +12492,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="29"/>
@@ -13508,20 +12501,20 @@
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
       <c r="D103" s="30" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="29"/>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="25" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C104" s="26">
         <v>1</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="E104" s="28">
         <v>1</v>
@@ -13532,7 +12525,7 @@
       <c r="B105" s="25"/>
       <c r="C105" s="26"/>
       <c r="D105" s="30" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="29"/>
@@ -13543,7 +12536,7 @@
         <v>2</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="29"/>
@@ -13552,7 +12545,7 @@
       <c r="B107" s="25"/>
       <c r="C107" s="26"/>
       <c r="D107" s="30" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
@@ -13563,7 +12556,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
@@ -13572,37 +12565,37 @@
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
       <c r="D109" s="30" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="25" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C111" s="26">
         <v>1</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="E111" s="28">
         <v>1</v>
@@ -13613,7 +12606,7 @@
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="D112" s="30" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="29"/>
@@ -13624,7 +12617,7 @@
         <v>2</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="29"/>
@@ -13633,7 +12626,7 @@
       <c r="B114" s="25"/>
       <c r="C114" s="26"/>
       <c r="D114" s="30" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="29"/>
@@ -13644,7 +12637,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="29"/>
@@ -13653,20 +12646,20 @@
       <c r="B116" s="25"/>
       <c r="C116" s="26"/>
       <c r="D116" s="30" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="29"/>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="25" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C117" s="26">
         <v>1</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="E117" s="28">
         <v>1</v>
@@ -13677,7 +12670,7 @@
       <c r="B118" s="25"/>
       <c r="C118" s="26"/>
       <c r="D118" s="30" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="29"/>
@@ -13688,7 +12681,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="29"/>
@@ -13697,7 +12690,7 @@
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="30" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="29"/>
@@ -13708,7 +12701,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="27" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="29"/>
@@ -13717,14 +12710,14 @@
       <c r="B122" s="25"/>
       <c r="C122" s="26"/>
       <c r="D122" s="30" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="29"/>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="20" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -13733,30 +12726,30 @@
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" ht="30" spans="2:6">
       <c r="B125" s="25" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="C125" s="26">
         <v>1</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="E125" s="28">
         <v>1</v>
@@ -13767,7 +12760,7 @@
       <c r="B126" s="25"/>
       <c r="C126" s="26"/>
       <c r="D126" s="30" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="29"/>
@@ -13778,7 +12771,7 @@
         <v>2</v>
       </c>
       <c r="D127" s="27" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="29"/>
@@ -13787,7 +12780,7 @@
       <c r="B128" s="25"/>
       <c r="C128" s="26"/>
       <c r="D128" s="30" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="29"/>
@@ -13798,7 +12791,7 @@
         <v>3</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="29"/>
@@ -13807,20 +12800,20 @@
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="30" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="29"/>
     </row>
     <row r="131" ht="30" spans="2:6">
       <c r="B131" s="25" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C131" s="26">
         <v>1</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="E131" s="28">
         <v>1</v>
@@ -13831,7 +12824,7 @@
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
       <c r="D132" s="30" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="E132" s="28"/>
       <c r="F132" s="29"/>
@@ -13842,7 +12835,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="27" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="E133" s="28"/>
       <c r="F133" s="29"/>
@@ -13851,7 +12844,7 @@
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="30" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="E134" s="28"/>
       <c r="F134" s="29"/>
@@ -13862,7 +12855,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="E135" s="28"/>
       <c r="F135" s="29"/>
@@ -13871,37 +12864,37 @@
       <c r="B136" s="25"/>
       <c r="C136" s="26"/>
       <c r="D136" s="30" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="E136" s="28"/>
       <c r="F136" s="29"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" ht="30" spans="2:6">
       <c r="B138" s="25" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C138" s="26">
         <v>1</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="E138" s="28">
         <v>1</v>
@@ -13912,7 +12905,7 @@
       <c r="B139" s="25"/>
       <c r="C139" s="26"/>
       <c r="D139" s="27" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="E139" s="28"/>
       <c r="F139" s="29"/>
@@ -13923,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="E140" s="28"/>
       <c r="F140" s="29"/>
@@ -13932,7 +12925,7 @@
       <c r="B141" s="25"/>
       <c r="C141" s="26"/>
       <c r="D141" s="27" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="E141" s="28"/>
       <c r="F141" s="29"/>
@@ -13943,7 +12936,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="E142" s="28"/>
       <c r="F142" s="29"/>
@@ -13952,20 +12945,20 @@
       <c r="B143" s="25"/>
       <c r="C143" s="26"/>
       <c r="D143" s="27" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="E143" s="28"/>
       <c r="F143" s="29"/>
     </row>
     <row r="144" ht="30" spans="2:6">
       <c r="B144" s="25" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="C144" s="26">
         <v>1</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="E144" s="28">
         <v>1</v>
@@ -13976,7 +12969,7 @@
       <c r="B145" s="25"/>
       <c r="C145" s="26"/>
       <c r="D145" s="27" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="E145" s="28"/>
       <c r="F145" s="29"/>
@@ -13987,7 +12980,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="E146" s="28"/>
       <c r="F146" s="29"/>
@@ -13996,7 +12989,7 @@
       <c r="B147" s="25"/>
       <c r="C147" s="26"/>
       <c r="D147" s="27" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="E147" s="28"/>
       <c r="F147" s="29"/>
@@ -14007,7 +13000,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="E148" s="28"/>
       <c r="F148" s="29"/>
@@ -14016,37 +13009,37 @@
       <c r="B149" s="25"/>
       <c r="C149" s="26"/>
       <c r="D149" s="27" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="E149" s="28"/>
       <c r="F149" s="29"/>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="25" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C151" s="26">
         <v>1</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="E151" s="28">
         <v>1</v>
@@ -14057,7 +13050,7 @@
       <c r="B152" s="25"/>
       <c r="C152" s="26"/>
       <c r="D152" s="27" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="E152" s="28"/>
       <c r="F152" s="29"/>
@@ -14068,7 +13061,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E153" s="28"/>
       <c r="F153" s="29"/>
@@ -14077,7 +13070,7 @@
       <c r="B154" s="25"/>
       <c r="C154" s="26"/>
       <c r="D154" s="27" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="E154" s="28"/>
       <c r="F154" s="29"/>
@@ -14088,7 +13081,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E155" s="28"/>
       <c r="F155" s="29"/>
@@ -14097,20 +13090,20 @@
       <c r="B156" s="25"/>
       <c r="C156" s="26"/>
       <c r="D156" s="27" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="E156" s="28"/>
       <c r="F156" s="29"/>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="25" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="C157" s="26">
         <v>1</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="E157" s="28">
         <v>1</v>
@@ -14121,7 +13114,7 @@
       <c r="B158" s="25"/>
       <c r="C158" s="26"/>
       <c r="D158" s="27" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="E158" s="28"/>
       <c r="F158" s="29"/>
@@ -14132,7 +13125,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E159" s="28"/>
       <c r="F159" s="29"/>
@@ -14141,7 +13134,7 @@
       <c r="B160" s="25"/>
       <c r="C160" s="26"/>
       <c r="D160" s="27" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="E160" s="28"/>
       <c r="F160" s="29"/>
@@ -14152,7 +13145,7 @@
         <v>3</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E161" s="28"/>
       <c r="F161" s="29"/>
@@ -14161,14 +13154,14 @@
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
       <c r="D162" s="27" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="E162" s="28"/>
       <c r="F162" s="29"/>
     </row>
     <row r="163" spans="2:6">
       <c r="B163" s="20" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
@@ -14177,30 +13170,30 @@
     </row>
     <row r="164" spans="2:6">
       <c r="B164" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" s="25" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="C165" s="26">
         <v>1</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="E165" s="28">
         <v>1</v>
@@ -14211,7 +13204,7 @@
       <c r="B166" s="25"/>
       <c r="C166" s="26"/>
       <c r="D166" s="30" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="E166" s="28"/>
       <c r="F166" s="29"/>
@@ -14222,7 +13215,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="E167" s="28"/>
       <c r="F167" s="29"/>
@@ -14231,7 +13224,7 @@
       <c r="B168" s="25"/>
       <c r="C168" s="26"/>
       <c r="D168" s="30" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="E168" s="28"/>
       <c r="F168" s="29"/>
@@ -14242,7 +13235,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="E169" s="28"/>
       <c r="F169" s="29"/>
@@ -14251,20 +13244,20 @@
       <c r="B170" s="25"/>
       <c r="C170" s="26"/>
       <c r="D170" s="30" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="E170" s="28"/>
       <c r="F170" s="29"/>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="25" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C171" s="26">
         <v>1</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="E171" s="28">
         <v>1</v>
@@ -14275,7 +13268,7 @@
       <c r="B172" s="25"/>
       <c r="C172" s="26"/>
       <c r="D172" s="30" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="E172" s="28"/>
       <c r="F172" s="29"/>
@@ -14286,7 +13279,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="27" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="E173" s="28"/>
       <c r="F173" s="29"/>
@@ -14295,7 +13288,7 @@
       <c r="B174" s="25"/>
       <c r="C174" s="26"/>
       <c r="D174" s="30" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="E174" s="28"/>
       <c r="F174" s="29"/>
@@ -14306,7 +13299,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="27" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="E175" s="28"/>
       <c r="F175" s="29"/>
@@ -14315,37 +13308,37 @@
       <c r="B176" s="25"/>
       <c r="C176" s="26"/>
       <c r="D176" s="30" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="E176" s="28"/>
       <c r="F176" s="29"/>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="E177" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F177" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" s="25" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="C178" s="26">
         <v>1</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="E178" s="28">
         <v>2</v>
@@ -14356,7 +13349,7 @@
       <c r="B179" s="25"/>
       <c r="C179" s="26"/>
       <c r="D179" s="30" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E179" s="28"/>
       <c r="F179" s="29"/>
@@ -14367,7 +13360,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E180" s="28"/>
       <c r="F180" s="29"/>
@@ -14376,7 +13369,7 @@
       <c r="B181" s="25"/>
       <c r="C181" s="26"/>
       <c r="D181" s="30" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E181" s="28"/>
       <c r="F181" s="29"/>
@@ -14387,7 +13380,7 @@
         <v>3</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="E182" s="28"/>
       <c r="F182" s="29"/>
@@ -14396,14 +13389,14 @@
       <c r="B183" s="25"/>
       <c r="C183" s="26"/>
       <c r="D183" s="30" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E183" s="28"/>
       <c r="F183" s="29"/>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" s="25" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="C184" s="26">
         <v>1</v>
@@ -14421,7 +13414,7 @@
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
       <c r="D185" s="30" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E185" s="28"/>
       <c r="F185" s="29"/>
@@ -14442,7 +13435,7 @@
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="30" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E187" s="28"/>
       <c r="F187" s="29"/>
@@ -14463,37 +13456,37 @@
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
       <c r="D189" s="30" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E189" s="28"/>
       <c r="F189" s="29"/>
     </row>
     <row r="190" spans="2:6">
       <c r="B190" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="E190" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F190" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="191" spans="2:6">
       <c r="B191" s="25" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C191" s="26">
         <v>1</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="E191" s="28">
         <v>2</v>
@@ -14504,7 +13497,7 @@
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
       <c r="D192" s="30" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="E192" s="28"/>
       <c r="F192" s="29"/>
@@ -14515,7 +13508,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="30" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="E193" s="28"/>
       <c r="F193" s="29"/>
@@ -14524,7 +13517,7 @@
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
       <c r="D194" s="30" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="E194" s="28"/>
       <c r="F194" s="29"/>
@@ -14535,7 +13528,7 @@
         <v>3</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E195" s="28"/>
       <c r="F195" s="29"/>
@@ -14544,14 +13537,14 @@
       <c r="B196" s="25"/>
       <c r="C196" s="26"/>
       <c r="D196" s="30" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="E196" s="28"/>
       <c r="F196" s="29"/>
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="25" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C197" s="26">
         <v>1</v>
@@ -14569,7 +13562,7 @@
       <c r="B198" s="25"/>
       <c r="C198" s="26"/>
       <c r="D198" s="30" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="E198" s="28"/>
       <c r="F198" s="29"/>
@@ -14590,7 +13583,7 @@
       <c r="B200" s="25"/>
       <c r="C200" s="26"/>
       <c r="D200" s="30" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="E200" s="28"/>
       <c r="F200" s="29"/>
@@ -14611,14 +13604,14 @@
       <c r="B202" s="25"/>
       <c r="C202" s="26"/>
       <c r="D202" s="30" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="E202" s="28"/>
       <c r="F202" s="29"/>
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="20" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
@@ -14627,30 +13620,30 @@
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="E204" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F204" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205" spans="2:6">
       <c r="B205" s="25" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="C205" s="26">
         <v>1</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="E205" s="28">
         <v>2</v>
@@ -14661,7 +13654,7 @@
       <c r="B206" s="25"/>
       <c r="C206" s="26"/>
       <c r="D206" s="27" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E206" s="28"/>
       <c r="F206" s="29"/>
@@ -14672,7 +13665,7 @@
         <v>2</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="E207" s="28"/>
       <c r="F207" s="29"/>
@@ -14681,7 +13674,7 @@
       <c r="B208" s="25"/>
       <c r="C208" s="26"/>
       <c r="D208" s="27" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="E208" s="28"/>
       <c r="F208" s="29"/>
@@ -14692,7 +13685,7 @@
         <v>3</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E209" s="28"/>
       <c r="F209" s="29"/>
@@ -14701,20 +13694,20 @@
       <c r="B210" s="25"/>
       <c r="C210" s="26"/>
       <c r="D210" s="27" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="E210" s="28"/>
       <c r="F210" s="29"/>
     </row>
     <row r="211" spans="2:6">
       <c r="B211" s="25" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="C211" s="26">
         <v>1</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="E211" s="28">
         <v>1</v>
@@ -14725,7 +13718,7 @@
       <c r="B212" s="25"/>
       <c r="C212" s="26"/>
       <c r="D212" s="27" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="E212" s="28"/>
       <c r="F212" s="29"/>
@@ -14736,7 +13729,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="27" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="E213" s="28"/>
       <c r="F213" s="29"/>
@@ -14745,7 +13738,7 @@
       <c r="B214" s="25"/>
       <c r="C214" s="26"/>
       <c r="D214" s="27" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="E214" s="28"/>
       <c r="F214" s="29"/>
@@ -14756,7 +13749,7 @@
         <v>3</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E215" s="28"/>
       <c r="F215" s="29"/>
@@ -14765,37 +13758,37 @@
       <c r="B216" s="25"/>
       <c r="C216" s="26"/>
       <c r="D216" s="27" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="E216" s="28"/>
       <c r="F216" s="29"/>
     </row>
     <row r="217" spans="2:6">
       <c r="B217" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D217" s="22" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F217" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" ht="30" spans="2:6">
       <c r="B218" s="25" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="C218" s="26">
         <v>1</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="E218" s="28">
         <v>1</v>
@@ -14806,7 +13799,7 @@
       <c r="B219" s="25"/>
       <c r="C219" s="26"/>
       <c r="D219" s="27" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="E219" s="28"/>
       <c r="F219" s="29"/>
@@ -14817,7 +13810,7 @@
         <v>2</v>
       </c>
       <c r="D220" s="27" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="E220" s="28"/>
       <c r="F220" s="29"/>
@@ -14826,7 +13819,7 @@
       <c r="B221" s="25"/>
       <c r="C221" s="26"/>
       <c r="D221" s="27" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E221" s="28"/>
       <c r="F221" s="29"/>
@@ -14837,7 +13830,7 @@
         <v>3</v>
       </c>
       <c r="D222" s="27" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="E222" s="28"/>
       <c r="F222" s="29"/>
@@ -14846,20 +13839,20 @@
       <c r="B223" s="25"/>
       <c r="C223" s="26"/>
       <c r="D223" s="27" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="E223" s="28"/>
       <c r="F223" s="29"/>
     </row>
     <row r="224" ht="30" spans="2:6">
       <c r="B224" s="25" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="C224" s="26">
         <v>1</v>
       </c>
       <c r="D224" s="27" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="E224" s="28">
         <v>1</v>
@@ -14870,7 +13863,7 @@
       <c r="B225" s="25"/>
       <c r="C225" s="26"/>
       <c r="D225" s="27" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="E225" s="28"/>
       <c r="F225" s="29"/>
@@ -14881,7 +13874,7 @@
         <v>2</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="E226" s="28"/>
       <c r="F226" s="29"/>
@@ -14890,7 +13883,7 @@
       <c r="B227" s="25"/>
       <c r="C227" s="26"/>
       <c r="D227" s="27" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="E227" s="28"/>
       <c r="F227" s="29"/>
@@ -14901,7 +13894,7 @@
         <v>3</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="E228" s="28"/>
       <c r="F228" s="29"/>
@@ -14910,37 +13903,37 @@
       <c r="B229" s="25"/>
       <c r="C229" s="26"/>
       <c r="D229" s="27" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="E229" s="28"/>
       <c r="F229" s="29"/>
     </row>
     <row r="230" spans="2:6">
       <c r="B230" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D230" s="22" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="E230" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F230" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="231" ht="30" spans="2:6">
       <c r="B231" s="25" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="C231" s="26">
         <v>1</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="E231" s="28">
         <v>1</v>
@@ -14951,7 +13944,7 @@
       <c r="B232" s="25"/>
       <c r="C232" s="26"/>
       <c r="D232" s="30" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="E232" s="28"/>
       <c r="F232" s="29"/>
@@ -14962,7 +13955,7 @@
         <v>2</v>
       </c>
       <c r="D233" s="30" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E233" s="28"/>
       <c r="F233" s="29"/>
@@ -14971,7 +13964,7 @@
       <c r="B234" s="25"/>
       <c r="C234" s="26"/>
       <c r="D234" s="30" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="E234" s="28"/>
       <c r="F234" s="29"/>
@@ -14982,7 +13975,7 @@
         <v>3</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="E235" s="28"/>
       <c r="F235" s="29"/>
@@ -14991,20 +13984,20 @@
       <c r="B236" s="25"/>
       <c r="C236" s="26"/>
       <c r="D236" s="27" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="E236" s="28"/>
       <c r="F236" s="29"/>
     </row>
     <row r="237" ht="30" spans="2:6">
       <c r="B237" s="25" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="C237" s="26">
         <v>1</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="E237" s="28">
         <v>2</v>
@@ -15015,7 +14008,7 @@
       <c r="B238" s="25"/>
       <c r="C238" s="26"/>
       <c r="D238" s="27" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="E238" s="28"/>
       <c r="F238" s="29"/>
@@ -15026,7 +14019,7 @@
         <v>2</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E239" s="28"/>
       <c r="F239" s="29"/>
@@ -15035,7 +14028,7 @@
       <c r="B240" s="25"/>
       <c r="C240" s="26"/>
       <c r="D240" s="27" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="E240" s="28"/>
       <c r="F240" s="29"/>
@@ -15046,7 +14039,7 @@
         <v>3</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="E241" s="28"/>
       <c r="F241" s="29"/>
@@ -15055,14 +14048,14 @@
       <c r="B242" s="25"/>
       <c r="C242" s="26"/>
       <c r="D242" s="27" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="E242" s="28"/>
       <c r="F242" s="29"/>
     </row>
     <row r="243" spans="2:6">
       <c r="B243" s="20" t="s">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
@@ -15071,30 +14064,30 @@
     </row>
     <row r="244" spans="2:6">
       <c r="B244" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D244" s="22" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="E244" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F244" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="245" spans="2:6">
       <c r="B245" s="25" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="C245" s="26">
         <v>1</v>
       </c>
       <c r="D245" s="27" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="E245" s="28">
         <v>1</v>
@@ -15105,7 +14098,7 @@
       <c r="B246" s="25"/>
       <c r="C246" s="26"/>
       <c r="D246" s="27" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E246" s="28"/>
       <c r="F246" s="29"/>
@@ -15116,7 +14109,7 @@
         <v>2</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="E247" s="28"/>
       <c r="F247" s="29"/>
@@ -15125,7 +14118,7 @@
       <c r="B248" s="25"/>
       <c r="C248" s="26"/>
       <c r="D248" s="27" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="E248" s="28"/>
       <c r="F248" s="29"/>
@@ -15136,7 +14129,7 @@
         <v>3</v>
       </c>
       <c r="D249" s="27" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="E249" s="28"/>
       <c r="F249" s="29"/>
@@ -15145,20 +14138,20 @@
       <c r="B250" s="25"/>
       <c r="C250" s="26"/>
       <c r="D250" s="27" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="E250" s="28"/>
       <c r="F250" s="29"/>
     </row>
     <row r="251" spans="2:6">
       <c r="B251" s="25" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="C251" s="26">
         <v>1</v>
       </c>
       <c r="D251" s="27" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="E251" s="28">
         <v>1</v>
@@ -15169,7 +14162,7 @@
       <c r="B252" s="25"/>
       <c r="C252" s="26"/>
       <c r="D252" s="27" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="E252" s="28"/>
       <c r="F252" s="29"/>
@@ -15180,7 +14173,7 @@
         <v>2</v>
       </c>
       <c r="D253" s="27" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="E253" s="28"/>
       <c r="F253" s="29"/>
@@ -15189,7 +14182,7 @@
       <c r="B254" s="25"/>
       <c r="C254" s="26"/>
       <c r="D254" s="27" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="E254" s="28"/>
       <c r="F254" s="29"/>
@@ -15200,7 +14193,7 @@
         <v>3</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="E255" s="28"/>
       <c r="F255" s="29"/>
@@ -15209,37 +14202,37 @@
       <c r="B256" s="25"/>
       <c r="C256" s="26"/>
       <c r="D256" s="27" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="E256" s="28"/>
       <c r="F256" s="29"/>
     </row>
     <row r="257" spans="2:6">
       <c r="B257" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D257" s="22" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="E257" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F257" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="258" spans="2:6">
       <c r="B258" s="25" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="C258" s="26">
         <v>1</v>
       </c>
       <c r="D258" s="27" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="E258" s="28">
         <v>0</v>
@@ -15250,7 +14243,7 @@
       <c r="B259" s="25"/>
       <c r="C259" s="26"/>
       <c r="D259" s="27" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="E259" s="28"/>
       <c r="F259" s="29"/>
@@ -15261,7 +14254,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="E260" s="28"/>
       <c r="F260" s="29"/>
@@ -15270,7 +14263,7 @@
       <c r="B261" s="25"/>
       <c r="C261" s="26"/>
       <c r="D261" s="27" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="E261" s="28"/>
       <c r="F261" s="29"/>
@@ -15281,7 +14274,7 @@
         <v>3</v>
       </c>
       <c r="D262" s="27" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="E262" s="28"/>
       <c r="F262" s="29"/>
@@ -15290,20 +14283,20 @@
       <c r="B263" s="25"/>
       <c r="C263" s="26"/>
       <c r="D263" s="27" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="E263" s="28"/>
       <c r="F263" s="29"/>
     </row>
     <row r="264" spans="2:6">
       <c r="B264" s="25" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="C264" s="26">
         <v>1</v>
       </c>
       <c r="D264" s="27" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="E264" s="28">
         <v>0</v>
@@ -15314,7 +14307,7 @@
       <c r="B265" s="25"/>
       <c r="C265" s="26"/>
       <c r="D265" s="27" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="E265" s="28"/>
       <c r="F265" s="29"/>
@@ -15325,7 +14318,7 @@
         <v>2</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="E266" s="28"/>
       <c r="F266" s="29"/>
@@ -15334,7 +14327,7 @@
       <c r="B267" s="25"/>
       <c r="C267" s="26"/>
       <c r="D267" s="27" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="E267" s="28"/>
       <c r="F267" s="29"/>
@@ -15345,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="D268" s="27" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="E268" s="28"/>
       <c r="F268" s="29"/>
@@ -15354,37 +14347,37 @@
       <c r="B269" s="25"/>
       <c r="C269" s="26"/>
       <c r="D269" s="27" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="E269" s="28"/>
       <c r="F269" s="29"/>
     </row>
     <row r="270" spans="2:6">
       <c r="B270" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="E270" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F270" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="271" spans="2:6">
       <c r="B271" s="25" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="C271" s="26">
         <v>1</v>
       </c>
       <c r="D271" s="27" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="E271" s="28">
         <v>1</v>
@@ -15395,7 +14388,7 @@
       <c r="B272" s="25"/>
       <c r="C272" s="26"/>
       <c r="D272" s="27" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="E272" s="28"/>
       <c r="F272" s="29"/>
@@ -15406,7 +14399,7 @@
         <v>2</v>
       </c>
       <c r="D273" s="27" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="E273" s="28"/>
       <c r="F273" s="29"/>
@@ -15415,7 +14408,7 @@
       <c r="B274" s="25"/>
       <c r="C274" s="26"/>
       <c r="D274" s="27" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="E274" s="28"/>
       <c r="F274" s="29"/>
@@ -15426,7 +14419,7 @@
         <v>3</v>
       </c>
       <c r="D275" s="27" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="E275" s="28"/>
       <c r="F275" s="29"/>
@@ -15435,20 +14428,20 @@
       <c r="B276" s="25"/>
       <c r="C276" s="26"/>
       <c r="D276" s="27" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="E276" s="28"/>
       <c r="F276" s="29"/>
     </row>
     <row r="277" spans="2:6">
       <c r="B277" s="25" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="C277" s="26">
         <v>1</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="E277" s="28">
         <v>1</v>
@@ -15459,7 +14452,7 @@
       <c r="B278" s="25"/>
       <c r="C278" s="26"/>
       <c r="D278" s="27" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="E278" s="28"/>
       <c r="F278" s="29"/>
@@ -15470,7 +14463,7 @@
         <v>2</v>
       </c>
       <c r="D279" s="27" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="E279" s="28"/>
       <c r="F279" s="29"/>
@@ -15479,7 +14472,7 @@
       <c r="B280" s="25"/>
       <c r="C280" s="26"/>
       <c r="D280" s="27" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="E280" s="28"/>
       <c r="F280" s="29"/>
@@ -15490,7 +14483,7 @@
         <v>3</v>
       </c>
       <c r="D281" s="27" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="E281" s="28"/>
       <c r="F281" s="29"/>
@@ -15499,14 +14492,14 @@
       <c r="B282" s="25"/>
       <c r="C282" s="26"/>
       <c r="D282" s="27" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="E282" s="28"/>
       <c r="F282" s="29"/>
     </row>
     <row r="283" spans="2:6">
       <c r="B283" s="20" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
@@ -15515,30 +14508,30 @@
     </row>
     <row r="284" spans="2:6">
       <c r="B284" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D284" s="22" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="E284" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="285" spans="2:6">
       <c r="B285" s="25" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="C285" s="26">
         <v>1</v>
       </c>
       <c r="D285" s="30" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="E285" s="28">
         <v>0</v>
@@ -15549,7 +14542,7 @@
       <c r="B286" s="25"/>
       <c r="C286" s="26"/>
       <c r="D286" s="27" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="E286" s="28"/>
       <c r="F286" s="29"/>
@@ -15560,7 +14553,7 @@
         <v>2</v>
       </c>
       <c r="D287" s="30" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="E287" s="28"/>
       <c r="F287" s="29"/>
@@ -15569,7 +14562,7 @@
       <c r="B288" s="25"/>
       <c r="C288" s="26"/>
       <c r="D288" s="27" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="E288" s="28"/>
       <c r="F288" s="29"/>
@@ -15580,7 +14573,7 @@
         <v>3</v>
       </c>
       <c r="D289" s="30" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="E289" s="28"/>
       <c r="F289" s="29"/>
@@ -15589,20 +14582,20 @@
       <c r="B290" s="25"/>
       <c r="C290" s="26"/>
       <c r="D290" s="27" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="E290" s="28"/>
       <c r="F290" s="29"/>
     </row>
     <row r="291" spans="2:6">
       <c r="B291" s="25" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="C291" s="26">
         <v>1</v>
       </c>
       <c r="D291" s="30" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="E291" s="28">
         <v>0</v>
@@ -15613,7 +14606,7 @@
       <c r="B292" s="25"/>
       <c r="C292" s="26"/>
       <c r="D292" s="27" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="E292" s="28"/>
       <c r="F292" s="29"/>
@@ -15624,7 +14617,7 @@
         <v>2</v>
       </c>
       <c r="D293" s="30" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="E293" s="28"/>
       <c r="F293" s="29"/>
@@ -15633,7 +14626,7 @@
       <c r="B294" s="25"/>
       <c r="C294" s="26"/>
       <c r="D294" s="27" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="E294" s="28"/>
       <c r="F294" s="29"/>
@@ -15644,7 +14637,7 @@
         <v>3</v>
       </c>
       <c r="D295" s="30" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="E295" s="28"/>
       <c r="F295" s="29"/>
@@ -15653,37 +14646,37 @@
       <c r="B296" s="25"/>
       <c r="C296" s="26"/>
       <c r="D296" s="27" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="E296" s="28"/>
       <c r="F296" s="29"/>
     </row>
     <row r="297" spans="2:6">
       <c r="B297" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C297" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D297" s="22" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E297" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F297" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="298" ht="30" spans="2:6">
       <c r="B298" s="25" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C298" s="26">
         <v>1</v>
       </c>
       <c r="D298" s="30" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="E298" s="28">
         <v>1</v>
@@ -15694,7 +14687,7 @@
       <c r="B299" s="25"/>
       <c r="C299" s="26"/>
       <c r="D299" s="33" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="E299" s="28"/>
       <c r="F299" s="29"/>
@@ -15705,7 +14698,7 @@
         <v>2</v>
       </c>
       <c r="D300" s="27" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="E300" s="28"/>
       <c r="F300" s="29"/>
@@ -15714,7 +14707,7 @@
       <c r="B301" s="25"/>
       <c r="C301" s="26"/>
       <c r="D301" s="27" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="E301" s="28"/>
       <c r="F301" s="29"/>
@@ -15725,7 +14718,7 @@
         <v>3</v>
       </c>
       <c r="D302" s="27" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="E302" s="28"/>
       <c r="F302" s="29"/>
@@ -15734,20 +14727,20 @@
       <c r="B303" s="25"/>
       <c r="C303" s="26"/>
       <c r="D303" s="27" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="E303" s="28"/>
       <c r="F303" s="29"/>
     </row>
     <row r="304" ht="30" spans="2:6">
       <c r="B304" s="25" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="C304" s="26">
         <v>1</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="E304" s="28">
         <v>1</v>
@@ -15758,7 +14751,7 @@
       <c r="B305" s="25"/>
       <c r="C305" s="26"/>
       <c r="D305" s="27" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="E305" s="28"/>
       <c r="F305" s="29"/>
@@ -15769,7 +14762,7 @@
         <v>2</v>
       </c>
       <c r="D306" s="27" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="E306" s="28"/>
       <c r="F306" s="29"/>
@@ -15778,7 +14771,7 @@
       <c r="B307" s="25"/>
       <c r="C307" s="26"/>
       <c r="D307" s="27" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="E307" s="28"/>
       <c r="F307" s="29"/>
@@ -15789,7 +14782,7 @@
         <v>3</v>
       </c>
       <c r="D308" s="27" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="E308" s="28"/>
       <c r="F308" s="29"/>
@@ -15798,37 +14791,37 @@
       <c r="B309" s="25"/>
       <c r="C309" s="26"/>
       <c r="D309" s="27" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="E309" s="28"/>
       <c r="F309" s="29"/>
     </row>
     <row r="310" spans="2:6">
       <c r="B310" s="21" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D310" s="22" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F310" s="24" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="311" spans="2:6">
       <c r="B311" s="25" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="C311" s="26">
         <v>1</v>
       </c>
       <c r="D311" s="27" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="E311" s="28">
         <v>0</v>
@@ -15839,7 +14832,7 @@
       <c r="B312" s="25"/>
       <c r="C312" s="26"/>
       <c r="D312" s="27" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="E312" s="28"/>
       <c r="F312" s="29"/>
@@ -15850,7 +14843,7 @@
         <v>2</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="E313" s="28"/>
       <c r="F313" s="29"/>
@@ -15859,7 +14852,7 @@
       <c r="B314" s="25"/>
       <c r="C314" s="26"/>
       <c r="D314" s="27" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="E314" s="28"/>
       <c r="F314" s="29"/>
@@ -15870,7 +14863,7 @@
         <v>3</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="E315" s="28"/>
       <c r="F315" s="29"/>
@@ -15879,20 +14872,20 @@
       <c r="B316" s="25"/>
       <c r="C316" s="26"/>
       <c r="D316" s="27" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E316" s="28"/>
       <c r="F316" s="29"/>
     </row>
     <row r="317" spans="2:6">
       <c r="B317" s="25" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="C317" s="26">
         <v>1</v>
       </c>
       <c r="D317" s="27" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="E317" s="28">
         <v>0</v>
@@ -15903,7 +14896,7 @@
       <c r="B318" s="25"/>
       <c r="C318" s="26"/>
       <c r="D318" s="27" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="E318" s="28"/>
       <c r="F318" s="29"/>
@@ -15914,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="D319" s="30" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="E319" s="28"/>
       <c r="F319" s="29"/>
@@ -15923,7 +14916,7 @@
       <c r="B320" s="25"/>
       <c r="C320" s="26"/>
       <c r="D320" s="27" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="E320" s="28"/>
       <c r="F320" s="29"/>
@@ -15934,7 +14927,7 @@
         <v>3</v>
       </c>
       <c r="D321" s="30" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="E321" s="28"/>
       <c r="F321" s="29"/>
@@ -15943,7 +14936,7 @@
       <c r="B322" s="25"/>
       <c r="C322" s="26"/>
       <c r="D322" s="27" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="E322" s="28"/>
       <c r="F322" s="29"/>
@@ -16320,40 +15313,40 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="3" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="J2" s="15" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="3" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="J3" s="13" t="str">
         <f>B4</f>
